--- a/pred_ohlcv/54_21/2020-01-21 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 ENJ ohlcv.xlsx
@@ -1718,7 +1718,7 @@
         <v>-294122.1435575404</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-295655.8532575403</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-295655.8532575403</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-295655.8532575403</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-304241.4179575403</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-304142.6448575403</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-304047.6448575403</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-258462.7904575403</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-253280.6635575403</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-261280.6635575403</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-263280.6635575403</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-242794.5315575403</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-242794.5315575403</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-229685.4730060092</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-223995.2616503192</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-224843.4977503306</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-224943.4977503306</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-224933.4977503306</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-238496.5666503306</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-239496.5666503306</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-239496.5666503306</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-239496.5666503306</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-245496.5666503306</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-242647.1919503306</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-254657.1919503306</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 ENJ ohlcv.xlsx
@@ -1926,7 +1926,7 @@
         <v>-298746.4260575403</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-286766.4260575403</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-295655.8532575403</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-295655.8532575403</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-295655.8532575403</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-295655.8532575403</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-304241.4179575403</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-304241.4179575403</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-304142.6448575403</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-304047.6448575403</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-304047.6448575403</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-297438.8750575403</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-258462.7904575403</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-253280.6635575403</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-261280.6635575403</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-263280.6635575403</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-242794.5315575403</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-242794.5315575403</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-254195.0537047522</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-236031.3907322751</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-245505.3041322751</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-229248.6595060092</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-229248.6595060092</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-227362.4731060092</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-229685.4730060092</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-223995.2616503192</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-224843.4977503306</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-224943.4977503306</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-224933.4977503306</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-238496.5666503306</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-239496.5666503306</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-239496.5666503306</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-239496.5666503306</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-245496.5666503306</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-244736.5666503306</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-244736.5666503306</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-242647.1919503306</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
